--- a/Code/Results/Cases/Case_6_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_43/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032933621433773</v>
+        <v>1.032933621433776</v>
       </c>
       <c r="D2">
-        <v>1.04767270055841</v>
+        <v>1.047672700558413</v>
       </c>
       <c r="E2">
-        <v>1.043933795246357</v>
+        <v>1.043933795246359</v>
       </c>
       <c r="F2">
-        <v>1.054241796349474</v>
+        <v>1.054241796349476</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055344836200568</v>
+        <v>1.055344836200569</v>
       </c>
       <c r="J2">
-        <v>1.054172014231852</v>
+        <v>1.054172014231855</v>
       </c>
       <c r="K2">
-        <v>1.058505551265169</v>
+        <v>1.058505551265171</v>
       </c>
       <c r="L2">
-        <v>1.05481320151224</v>
+        <v>1.054813201512242</v>
       </c>
       <c r="M2">
-        <v>1.064993845320608</v>
+        <v>1.06499384532061</v>
       </c>
       <c r="N2">
-        <v>1.055669059407282</v>
+        <v>1.055669059407285</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,34 +462,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040859777034002</v>
+        <v>1.040859777034003</v>
       </c>
       <c r="D3">
-        <v>1.053868219848814</v>
+        <v>1.053868219848815</v>
       </c>
       <c r="E3">
-        <v>1.050647747238581</v>
+        <v>1.050647747238582</v>
       </c>
       <c r="F3">
-        <v>1.060993003977939</v>
+        <v>1.06099300397794</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057721535711759</v>
+        <v>1.05772153571176</v>
       </c>
       <c r="J3">
-        <v>1.060295317429939</v>
+        <v>1.06029531742994</v>
       </c>
       <c r="K3">
-        <v>1.063855295516765</v>
+        <v>1.063855295516766</v>
       </c>
       <c r="L3">
         <v>1.060671136391117</v>
       </c>
       <c r="M3">
-        <v>1.070900704970133</v>
+        <v>1.070900704970134</v>
       </c>
       <c r="N3">
         <v>1.061801058398263</v>
@@ -503,16 +503,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045836948571931</v>
+        <v>1.045836948571929</v>
       </c>
       <c r="D4">
-        <v>1.05776047113296</v>
+        <v>1.057760471132958</v>
       </c>
       <c r="E4">
-        <v>1.054868908838007</v>
+        <v>1.054868908838004</v>
       </c>
       <c r="F4">
-        <v>1.065237314255788</v>
+        <v>1.065237314255785</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,19 +521,19 @@
         <v>1.05920140461304</v>
       </c>
       <c r="J4">
-        <v>1.064136621757924</v>
+        <v>1.064136621757922</v>
       </c>
       <c r="K4">
-        <v>1.067208389499249</v>
+        <v>1.067208389499247</v>
       </c>
       <c r="L4">
-        <v>1.064347318623637</v>
+        <v>1.064347318623635</v>
       </c>
       <c r="M4">
-        <v>1.074607326144813</v>
+        <v>1.07460732614481</v>
       </c>
       <c r="N4">
-        <v>1.065647817818997</v>
+        <v>1.065647817818994</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -547,34 +547,34 @@
         <v>1.047895130898286</v>
       </c>
       <c r="D5">
-        <v>1.059370337464291</v>
+        <v>1.059370337464292</v>
       </c>
       <c r="E5">
         <v>1.056615609361161</v>
       </c>
       <c r="F5">
-        <v>1.066993517668222</v>
+        <v>1.066993517668223</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059810286680691</v>
+        <v>1.059810286680692</v>
       </c>
       <c r="J5">
-        <v>1.06572411889632</v>
+        <v>1.065724118896321</v>
       </c>
       <c r="K5">
-        <v>1.068593393202607</v>
+        <v>1.068593393202608</v>
       </c>
       <c r="L5">
-        <v>1.065866885661754</v>
+        <v>1.065866885661755</v>
       </c>
       <c r="M5">
-        <v>1.076139402476084</v>
+        <v>1.076139402476086</v>
       </c>
       <c r="N5">
-        <v>1.067237569385418</v>
+        <v>1.067237569385419</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04823875895367</v>
+        <v>1.048238758953672</v>
       </c>
       <c r="D6">
-        <v>1.059639132019912</v>
+        <v>1.059639132019914</v>
       </c>
       <c r="E6">
-        <v>1.056907298087096</v>
+        <v>1.056907298087098</v>
       </c>
       <c r="F6">
-        <v>1.067286788574124</v>
+        <v>1.067286788574126</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059911760849044</v>
+        <v>1.059911760849045</v>
       </c>
       <c r="J6">
-        <v>1.065989103388557</v>
+        <v>1.065989103388559</v>
       </c>
       <c r="K6">
-        <v>1.068824533859642</v>
+        <v>1.068824533859644</v>
       </c>
       <c r="L6">
-        <v>1.066120549128911</v>
+        <v>1.066120549128913</v>
       </c>
       <c r="M6">
-        <v>1.076395149593117</v>
+        <v>1.076395149593119</v>
       </c>
       <c r="N6">
-        <v>1.067502930186027</v>
+        <v>1.06750293018603</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -629,10 +629,10 @@
         <v>1.045864581963321</v>
       </c>
       <c r="D7">
-        <v>1.057782084237698</v>
+        <v>1.057782084237697</v>
       </c>
       <c r="E7">
-        <v>1.054892355823353</v>
+        <v>1.054892355823352</v>
       </c>
       <c r="F7">
         <v>1.065260889117313</v>
@@ -644,19 +644,19 @@
         <v>1.05920959180763</v>
       </c>
       <c r="J7">
-        <v>1.064157939628492</v>
+        <v>1.064157939628491</v>
       </c>
       <c r="K7">
         <v>1.067226991091139</v>
       </c>
       <c r="L7">
-        <v>1.064367723078383</v>
+        <v>1.064367723078381</v>
       </c>
       <c r="M7">
-        <v>1.074627898872095</v>
+        <v>1.074627898872094</v>
       </c>
       <c r="N7">
-        <v>1.065669165963386</v>
+        <v>1.065669165963385</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,16 +667,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035644991232003</v>
+        <v>1.035644991232004</v>
       </c>
       <c r="D8">
-        <v>1.049791600916814</v>
+        <v>1.049791600916815</v>
       </c>
       <c r="E8">
         <v>1.046229339573812</v>
       </c>
       <c r="F8">
-        <v>1.05655013007499</v>
+        <v>1.056550130074991</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -708,16 +708,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016372548750518</v>
+        <v>1.016372548750517</v>
       </c>
       <c r="D9">
-        <v>1.034743464288719</v>
+        <v>1.034743464288718</v>
       </c>
       <c r="E9">
-        <v>1.029939524236979</v>
+        <v>1.029939524236978</v>
       </c>
       <c r="F9">
-        <v>1.040168836521937</v>
+        <v>1.040168836521936</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -726,19 +726,19 @@
         <v>1.050311600312201</v>
       </c>
       <c r="J9">
-        <v>1.041360108455403</v>
+        <v>1.041360108455402</v>
       </c>
       <c r="K9">
         <v>1.047296925817855</v>
       </c>
       <c r="L9">
-        <v>1.042564836132991</v>
+        <v>1.04256483613299</v>
       </c>
       <c r="M9">
         <v>1.052642166338952</v>
       </c>
       <c r="N9">
-        <v>1.042838959255084</v>
+        <v>1.042838959255082</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -767,7 +767,7 @@
         <v>1.046042570502348</v>
       </c>
       <c r="J10">
-        <v>1.030625232028667</v>
+        <v>1.030625232028668</v>
       </c>
       <c r="K10">
         <v>1.037893372019747</v>
@@ -779,7 +779,7 @@
         <v>1.042301117328797</v>
       </c>
       <c r="N10">
-        <v>1.032088838072514</v>
+        <v>1.032088838072515</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,13 +790,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9962251034100342</v>
+        <v>0.9962251034100338</v>
       </c>
       <c r="D11">
         <v>1.019053821797453</v>
       </c>
       <c r="E11">
-        <v>1.012980412526191</v>
+        <v>1.01298041252619</v>
       </c>
       <c r="F11">
         <v>1.023114130204134</v>
@@ -814,7 +814,7 @@
         <v>1.033625139510123</v>
       </c>
       <c r="L11">
-        <v>1.027661619789649</v>
+        <v>1.027661619789648</v>
       </c>
       <c r="M11">
         <v>1.037612926787032</v>
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9938433888289097</v>
+        <v>0.993843388828908</v>
       </c>
       <c r="D12">
-        <v>1.017202565690407</v>
+        <v>1.017202565690406</v>
       </c>
       <c r="E12">
-        <v>1.010980615516464</v>
+        <v>1.010980615516462</v>
       </c>
       <c r="F12">
-        <v>1.021103136254783</v>
+        <v>1.021103136254782</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043352708224854</v>
+        <v>1.043352708224853</v>
       </c>
       <c r="J12">
-        <v>1.023910612483179</v>
+        <v>1.023910612483178</v>
       </c>
       <c r="K12">
-        <v>1.032007449630419</v>
+        <v>1.032007449630418</v>
       </c>
       <c r="L12">
-        <v>1.025900425161208</v>
+        <v>1.025900425161206</v>
       </c>
       <c r="M12">
-        <v>1.035836901765503</v>
+        <v>1.035836901765502</v>
       </c>
       <c r="N12">
-        <v>1.025364682997094</v>
+        <v>1.025364682997093</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9943564723200807</v>
+        <v>0.9943564723200832</v>
       </c>
       <c r="D13">
-        <v>1.017601306486494</v>
+        <v>1.017601306486496</v>
       </c>
       <c r="E13">
-        <v>1.011411331868564</v>
+        <v>1.011411331868567</v>
       </c>
       <c r="F13">
-        <v>1.021536262004928</v>
+        <v>1.021536262004931</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043512318771721</v>
+        <v>1.043512318771722</v>
       </c>
       <c r="J13">
-        <v>1.024308109294116</v>
+        <v>1.024308109294118</v>
       </c>
       <c r="K13">
-        <v>1.032355958817942</v>
+        <v>1.032355958817944</v>
       </c>
       <c r="L13">
-        <v>1.026279815212572</v>
+        <v>1.026279815212574</v>
       </c>
       <c r="M13">
-        <v>1.036219484630371</v>
+        <v>1.036219484630374</v>
       </c>
       <c r="N13">
-        <v>1.025762744299096</v>
+        <v>1.025762744299098</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9960292137633926</v>
+        <v>0.9960292137633945</v>
       </c>
       <c r="D14">
-        <v>1.018901530723505</v>
+        <v>1.018901530723506</v>
       </c>
       <c r="E14">
-        <v>1.012815893524245</v>
+        <v>1.012815893524247</v>
       </c>
       <c r="F14">
-        <v>1.022948689099377</v>
+        <v>1.022948689099379</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044032358420815</v>
+        <v>1.044032358420816</v>
       </c>
       <c r="J14">
-        <v>1.025604011816526</v>
+        <v>1.025604011816528</v>
       </c>
       <c r="K14">
-        <v>1.03349209656975</v>
+        <v>1.033492096569752</v>
       </c>
       <c r="L14">
-        <v>1.027516758771611</v>
+        <v>1.027516758771613</v>
       </c>
       <c r="M14">
-        <v>1.037466845124794</v>
+        <v>1.037466845124796</v>
       </c>
       <c r="N14">
-        <v>1.02706048715173</v>
+        <v>1.027060487151732</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,7 +954,7 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9970534922185971</v>
+        <v>0.9970534922185968</v>
       </c>
       <c r="D15">
         <v>1.019697897725814</v>
@@ -978,10 +978,10 @@
         <v>1.034187742202434</v>
       </c>
       <c r="L15">
-        <v>1.028274229906944</v>
+        <v>1.028274229906943</v>
       </c>
       <c r="M15">
-        <v>1.038230700479285</v>
+        <v>1.038230700479284</v>
       </c>
       <c r="N15">
         <v>1.027855133124661</v>
@@ -995,7 +995,7 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002921720271661</v>
+        <v>1.00292172027166</v>
       </c>
       <c r="D16">
         <v>1.024263135386232</v>
@@ -1013,19 +1013,19 @@
         <v>1.046169710967243</v>
       </c>
       <c r="J16">
-        <v>1.030943479256617</v>
+        <v>1.030943479256616</v>
       </c>
       <c r="K16">
-        <v>1.038172274171097</v>
+        <v>1.038172274171096</v>
       </c>
       <c r="L16">
         <v>1.032614461114697</v>
       </c>
       <c r="M16">
-        <v>1.042607575784906</v>
+        <v>1.042607575784905</v>
       </c>
       <c r="N16">
-        <v>1.032407537248031</v>
+        <v>1.03240753724803</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,16 +1036,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006523930795262</v>
+        <v>1.00652393079526</v>
       </c>
       <c r="D17">
-        <v>1.027067721026764</v>
+        <v>1.027067721026761</v>
       </c>
       <c r="E17">
-        <v>1.021640132992174</v>
+        <v>1.021640132992172</v>
       </c>
       <c r="F17">
-        <v>1.031822573941264</v>
+        <v>1.031822573941262</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1054,19 +1054,19 @@
         <v>1.047282965037379</v>
       </c>
       <c r="J17">
-        <v>1.033733692053416</v>
+        <v>1.033733692053413</v>
       </c>
       <c r="K17">
-        <v>1.040617235477365</v>
+        <v>1.040617235477363</v>
       </c>
       <c r="L17">
-        <v>1.035279080828446</v>
+        <v>1.035279080828444</v>
       </c>
       <c r="M17">
-        <v>1.045294732637363</v>
+        <v>1.045294732637361</v>
       </c>
       <c r="N17">
-        <v>1.035201712467043</v>
+        <v>1.035201712467041</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1101,7 +1101,7 @@
         <v>1.04202459258109</v>
       </c>
       <c r="L18">
-        <v>1.03681338611788</v>
+        <v>1.036813386117881</v>
       </c>
       <c r="M18">
         <v>1.046842023598393</v>
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009300733328425</v>
+        <v>1.009300733328427</v>
       </c>
       <c r="D19">
-        <v>1.029230754787317</v>
+        <v>1.029230754787319</v>
       </c>
       <c r="E19">
-        <v>1.02397836007364</v>
+        <v>1.023978360073641</v>
       </c>
       <c r="F19">
-        <v>1.034173999959753</v>
+        <v>1.034173999959755</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048139202756446</v>
+        <v>1.048139202756447</v>
       </c>
       <c r="J19">
-        <v>1.035884315545033</v>
+        <v>1.035884315545035</v>
       </c>
       <c r="K19">
-        <v>1.042501363189972</v>
+        <v>1.042501363189973</v>
       </c>
       <c r="L19">
-        <v>1.03733325005442</v>
+        <v>1.037333250054421</v>
       </c>
       <c r="M19">
         <v>1.047366288373754</v>
       </c>
       <c r="N19">
-        <v>1.037355390090699</v>
+        <v>1.037355390090701</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006140273999176</v>
+        <v>1.006140273999175</v>
       </c>
       <c r="D20">
-        <v>1.026768938984555</v>
+        <v>1.026768938984554</v>
       </c>
       <c r="E20">
         <v>1.021317182910934</v>
       </c>
       <c r="F20">
-        <v>1.03149780179101</v>
+        <v>1.031497801791009</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047164528523397</v>
+        <v>1.047164528523396</v>
       </c>
       <c r="J20">
-        <v>1.033436533271746</v>
+        <v>1.033436533271745</v>
       </c>
       <c r="K20">
-        <v>1.040356872221603</v>
+        <v>1.040356872221602</v>
       </c>
       <c r="L20">
         <v>1.034995273403005</v>
       </c>
       <c r="M20">
-        <v>1.045008523767108</v>
+        <v>1.045008523767107</v>
       </c>
       <c r="N20">
-        <v>1.034904131685819</v>
+        <v>1.034904131685818</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,16 +1200,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9955379651417628</v>
+        <v>0.9955379651417647</v>
       </c>
       <c r="D21">
-        <v>1.018519641504231</v>
+        <v>1.018519641504233</v>
       </c>
       <c r="E21">
-        <v>1.012403347947819</v>
+        <v>1.012403347947821</v>
       </c>
       <c r="F21">
-        <v>1.022533832001074</v>
+        <v>1.022533832001076</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1218,19 +1218,19 @@
         <v>1.043879684959652</v>
       </c>
       <c r="J21">
-        <v>1.025223434092577</v>
+        <v>1.025223434092579</v>
       </c>
       <c r="K21">
-        <v>1.033158447469973</v>
+        <v>1.033158447469975</v>
       </c>
       <c r="L21">
-        <v>1.02715348456341</v>
+        <v>1.027153484563412</v>
       </c>
       <c r="M21">
-        <v>1.037100510481733</v>
+        <v>1.037100510481735</v>
       </c>
       <c r="N21">
-        <v>1.02667936896376</v>
+        <v>1.026679368963762</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,16 +1241,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9885979574755103</v>
+        <v>0.9885979574755094</v>
       </c>
       <c r="D22">
-        <v>1.013128306632521</v>
+        <v>1.01312830663252</v>
       </c>
       <c r="E22">
-        <v>1.006580183644327</v>
+        <v>1.006580183644326</v>
       </c>
       <c r="F22">
-        <v>1.01667816668418</v>
+        <v>1.016678166684179</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1259,16 +1259,16 @@
         <v>1.041718451493082</v>
       </c>
       <c r="J22">
-        <v>1.0198468853006</v>
+        <v>1.019846885300599</v>
       </c>
       <c r="K22">
         <v>1.028444099620988</v>
       </c>
       <c r="L22">
-        <v>1.022022403230124</v>
+        <v>1.022022403230123</v>
       </c>
       <c r="M22">
-        <v>1.031926311450888</v>
+        <v>1.031926311450887</v>
       </c>
       <c r="N22">
         <v>1.021295184855799</v>
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9923045467023933</v>
+        <v>0.9923045467023973</v>
       </c>
       <c r="D23">
-        <v>1.01600688823861</v>
+        <v>1.016006888238614</v>
       </c>
       <c r="E23">
-        <v>1.009689114214855</v>
+        <v>1.009689114214859</v>
       </c>
       <c r="F23">
-        <v>1.019804418098787</v>
+        <v>1.019804418098791</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042873735373368</v>
+        <v>1.04287373537337</v>
       </c>
       <c r="J23">
-        <v>1.022718436862879</v>
+        <v>1.022718436862883</v>
       </c>
       <c r="K23">
-        <v>1.030962150455612</v>
+        <v>1.030962150455615</v>
       </c>
       <c r="L23">
-        <v>1.024762617612417</v>
+        <v>1.024762617612421</v>
       </c>
       <c r="M23">
-        <v>1.034689525501424</v>
+        <v>1.034689525501428</v>
       </c>
       <c r="N23">
-        <v>1.024170814350669</v>
+        <v>1.024170814350672</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,10 +1323,10 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006313715243621</v>
+        <v>1.00631371524362</v>
       </c>
       <c r="D24">
-        <v>1.026904008324288</v>
+        <v>1.026904008324287</v>
       </c>
       <c r="E24">
         <v>1.021463176881352</v>
@@ -1344,16 +1344,16 @@
         <v>1.033570871517479</v>
       </c>
       <c r="K24">
-        <v>1.040474576900156</v>
+        <v>1.040474576900155</v>
       </c>
       <c r="L24">
-        <v>1.035123575106162</v>
+        <v>1.035123575106161</v>
       </c>
       <c r="M24">
-        <v>1.0451379110734</v>
+        <v>1.045137911073399</v>
       </c>
       <c r="N24">
-        <v>1.03503866070727</v>
+        <v>1.035038660707269</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1367,34 +1367,34 @@
         <v>1.021520395280721</v>
       </c>
       <c r="D25">
-        <v>1.038759713907623</v>
+        <v>1.038759713907624</v>
       </c>
       <c r="E25">
-        <v>1.034284457005229</v>
+        <v>1.03428445700523</v>
       </c>
       <c r="F25">
-        <v>1.04453828957714</v>
+        <v>1.044538289577141</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051884847253248</v>
+        <v>1.051884847253249</v>
       </c>
       <c r="J25">
         <v>1.045344600522895</v>
       </c>
       <c r="K25">
-        <v>1.050784720958691</v>
+        <v>1.050784720958692</v>
       </c>
       <c r="L25">
-        <v>1.046372882428618</v>
+        <v>1.046372882428619</v>
       </c>
       <c r="M25">
         <v>1.056482423351079</v>
       </c>
       <c r="N25">
-        <v>1.046829109758339</v>
+        <v>1.04682910975834</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_43/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032933621433776</v>
+        <v>1.016285527565253</v>
       </c>
       <c r="D2">
-        <v>1.047672700558413</v>
+        <v>1.03508240180909</v>
       </c>
       <c r="E2">
-        <v>1.043933795246359</v>
+        <v>1.030339017335103</v>
       </c>
       <c r="F2">
-        <v>1.054241796349476</v>
+        <v>1.041092174266633</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055344836200569</v>
+        <v>1.050444395003665</v>
       </c>
       <c r="J2">
-        <v>1.054172014231855</v>
+        <v>1.037989817511847</v>
       </c>
       <c r="K2">
-        <v>1.058505551265171</v>
+        <v>1.046073697298929</v>
       </c>
       <c r="L2">
-        <v>1.054813201512242</v>
+        <v>1.041391262943592</v>
       </c>
       <c r="M2">
-        <v>1.06499384532061</v>
+        <v>1.052007242384271</v>
       </c>
       <c r="N2">
-        <v>1.055669059407285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.0160523462725</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.043648368644285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040859777034003</v>
+        <v>1.020978984565363</v>
       </c>
       <c r="D3">
-        <v>1.053868219848815</v>
+        <v>1.038292502842587</v>
       </c>
       <c r="E3">
-        <v>1.050647747238582</v>
+        <v>1.034138846055616</v>
       </c>
       <c r="F3">
-        <v>1.06099300397794</v>
+        <v>1.044906104107002</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05772153571176</v>
+        <v>1.051443128983599</v>
       </c>
       <c r="J3">
-        <v>1.06029531742994</v>
+        <v>1.040913632305546</v>
       </c>
       <c r="K3">
-        <v>1.063855295516766</v>
+        <v>1.048457790979058</v>
       </c>
       <c r="L3">
-        <v>1.060671136391117</v>
+        <v>1.044352781133689</v>
       </c>
       <c r="M3">
-        <v>1.070900704970134</v>
+        <v>1.054994920343497</v>
       </c>
       <c r="N3">
-        <v>1.061801058398263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017070210257318</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.045331463776786</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045836948571929</v>
+        <v>1.023958040469687</v>
       </c>
       <c r="D4">
-        <v>1.057760471132958</v>
+        <v>1.040333686550736</v>
       </c>
       <c r="E4">
-        <v>1.054868908838004</v>
+        <v>1.036556516739793</v>
       </c>
       <c r="F4">
-        <v>1.065237314255785</v>
+        <v>1.047332319685319</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05920140461304</v>
+        <v>1.052067637743897</v>
       </c>
       <c r="J4">
-        <v>1.064136621757922</v>
+        <v>1.042768136292784</v>
       </c>
       <c r="K4">
-        <v>1.067208389499247</v>
+        <v>1.04996852099232</v>
       </c>
       <c r="L4">
-        <v>1.064347318623635</v>
+        <v>1.046232882618926</v>
       </c>
       <c r="M4">
-        <v>1.07460732614481</v>
+        <v>1.056891172169</v>
       </c>
       <c r="N4">
-        <v>1.065647817818994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017715400355952</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.04640055321986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047895130898286</v>
+        <v>1.025202119966705</v>
       </c>
       <c r="D5">
-        <v>1.059370337464292</v>
+        <v>1.04118898879365</v>
       </c>
       <c r="E5">
-        <v>1.056615609361161</v>
+        <v>1.037568218039906</v>
       </c>
       <c r="F5">
-        <v>1.066993517668223</v>
+        <v>1.048347733462243</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059810286680692</v>
+        <v>1.052327836270358</v>
       </c>
       <c r="J5">
-        <v>1.065724118896321</v>
+        <v>1.043544030455929</v>
       </c>
       <c r="K5">
-        <v>1.068593393202608</v>
+        <v>1.050601678431516</v>
       </c>
       <c r="L5">
-        <v>1.065866885661755</v>
+        <v>1.047019644840818</v>
       </c>
       <c r="M5">
-        <v>1.076139402476086</v>
+        <v>1.057684797166673</v>
       </c>
       <c r="N5">
-        <v>1.067237569385419</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017985810983857</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046855347231081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048238758953672</v>
+        <v>1.025416385078443</v>
       </c>
       <c r="D6">
-        <v>1.059639132019914</v>
+        <v>1.041338847732676</v>
       </c>
       <c r="E6">
-        <v>1.056907298087098</v>
+        <v>1.037743399078691</v>
       </c>
       <c r="F6">
-        <v>1.067286788574126</v>
+        <v>1.048523847595893</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059911760849045</v>
+        <v>1.052374583727363</v>
       </c>
       <c r="J6">
-        <v>1.065989103388559</v>
+        <v>1.043679812620587</v>
       </c>
       <c r="K6">
-        <v>1.068824533859644</v>
+        <v>1.050714219632569</v>
       </c>
       <c r="L6">
-        <v>1.066120549128913</v>
+        <v>1.047157058434876</v>
       </c>
       <c r="M6">
-        <v>1.076395149593119</v>
+        <v>1.057823668432276</v>
       </c>
       <c r="N6">
-        <v>1.06750293018603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01803383246334</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046943585866669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045864581963321</v>
+        <v>1.023991312849944</v>
       </c>
       <c r="D7">
-        <v>1.057782084237697</v>
+        <v>1.040363276995132</v>
       </c>
       <c r="E7">
-        <v>1.054892355823352</v>
+        <v>1.036585892459317</v>
       </c>
       <c r="F7">
-        <v>1.065260889117313</v>
+        <v>1.047362586208506</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05920959180763</v>
+        <v>1.052080183951972</v>
       </c>
       <c r="J7">
-        <v>1.064157939628491</v>
+        <v>1.042794736407814</v>
       </c>
       <c r="K7">
-        <v>1.067226991091139</v>
+        <v>1.049994941189117</v>
       </c>
       <c r="L7">
-        <v>1.064367723078381</v>
+        <v>1.046259073737905</v>
       </c>
       <c r="M7">
-        <v>1.074627898872094</v>
+        <v>1.056918291692849</v>
       </c>
       <c r="N7">
-        <v>1.065669165963385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017726597976244</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.046439167326782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035644991232004</v>
+        <v>1.017905032796986</v>
       </c>
       <c r="D8">
-        <v>1.049791600916815</v>
+        <v>1.036197664707896</v>
       </c>
       <c r="E8">
-        <v>1.046229339573812</v>
+        <v>1.031651946936846</v>
       </c>
       <c r="F8">
-        <v>1.056550130074991</v>
+        <v>1.042410973407774</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056160464178993</v>
+        <v>1.050797914354908</v>
       </c>
       <c r="J8">
-        <v>1.056267419667947</v>
+        <v>1.039006297079933</v>
       </c>
       <c r="K8">
-        <v>1.060336847323233</v>
+        <v>1.046908661520599</v>
       </c>
       <c r="L8">
-        <v>1.056817503282202</v>
+        <v>1.042419584252023</v>
       </c>
       <c r="M8">
-        <v>1.067014936540347</v>
+        <v>1.053045544758336</v>
       </c>
       <c r="N8">
-        <v>1.057767440559442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016408837472964</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044261490350832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016372548750517</v>
+        <v>1.006685509678412</v>
       </c>
       <c r="D9">
-        <v>1.034743464288718</v>
+        <v>1.028539662046059</v>
       </c>
       <c r="E9">
-        <v>1.029939524236978</v>
+        <v>1.022601384312987</v>
       </c>
       <c r="F9">
-        <v>1.040168836521936</v>
+        <v>1.033323740821835</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050311600312201</v>
+        <v>1.048352165843798</v>
       </c>
       <c r="J9">
-        <v>1.041360108455402</v>
+        <v>1.032004374293242</v>
       </c>
       <c r="K9">
-        <v>1.047296925817855</v>
+        <v>1.041186071883591</v>
       </c>
       <c r="L9">
-        <v>1.04256483613299</v>
+        <v>1.035338111853845</v>
       </c>
       <c r="M9">
-        <v>1.052642166338952</v>
+        <v>1.045898348061313</v>
       </c>
       <c r="N9">
-        <v>1.042838959255082</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013966972260667</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.040212119000847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002510881713356</v>
+        <v>0.9988615774765167</v>
       </c>
       <c r="D10">
-        <v>1.023943371921825</v>
+        <v>1.023227481284454</v>
       </c>
       <c r="E10">
-        <v>1.01826342059566</v>
+        <v>1.016327477179678</v>
       </c>
       <c r="F10">
-        <v>1.028426825714389</v>
+        <v>1.027022924322827</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046042570502348</v>
+        <v>1.046602021469073</v>
       </c>
       <c r="J10">
-        <v>1.030625232028668</v>
+        <v>1.027120435835025</v>
       </c>
       <c r="K10">
-        <v>1.037893372019747</v>
+        <v>1.03718964936709</v>
       </c>
       <c r="L10">
-        <v>1.032310571336449</v>
+        <v>1.030408061587633</v>
       </c>
       <c r="M10">
-        <v>1.042301117328797</v>
+        <v>1.040920830806633</v>
       </c>
       <c r="N10">
-        <v>1.032088838072515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012263062468616</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.037403158854275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9962251034100338</v>
+        <v>0.9954049132894619</v>
       </c>
       <c r="D11">
-        <v>1.019053821797453</v>
+        <v>1.020896092624052</v>
       </c>
       <c r="E11">
-        <v>1.01298041252619</v>
+        <v>1.013568604260086</v>
       </c>
       <c r="F11">
-        <v>1.023114130204134</v>
+        <v>1.024252592670691</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044093226280088</v>
+        <v>1.045825469706506</v>
       </c>
       <c r="J11">
-        <v>1.025755770095581</v>
+        <v>1.024970110603935</v>
       </c>
       <c r="K11">
-        <v>1.033625139510123</v>
+        <v>1.035434412722691</v>
       </c>
       <c r="L11">
-        <v>1.027661619789648</v>
+        <v>1.028239094095522</v>
       </c>
       <c r="M11">
-        <v>1.037612926787032</v>
+        <v>1.038731189075752</v>
       </c>
       <c r="N11">
-        <v>1.027212460944948</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011515667196473</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.036194904544804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.993843388828908</v>
+        <v>0.994094030613058</v>
       </c>
       <c r="D12">
-        <v>1.017202565690406</v>
+        <v>1.020008358904588</v>
       </c>
       <c r="E12">
-        <v>1.010980615516462</v>
+        <v>1.012521933789089</v>
       </c>
       <c r="F12">
-        <v>1.021103136254782</v>
+        <v>1.023201134333933</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043352708224853</v>
+        <v>1.045525584882169</v>
       </c>
       <c r="J12">
-        <v>1.023910612483178</v>
+        <v>1.024150462064667</v>
       </c>
       <c r="K12">
-        <v>1.032007449630418</v>
+        <v>1.034762013855661</v>
       </c>
       <c r="L12">
-        <v>1.025900425161206</v>
+        <v>1.027413102100865</v>
       </c>
       <c r="M12">
-        <v>1.035836901765502</v>
+        <v>1.037896938939176</v>
       </c>
       <c r="N12">
-        <v>1.025364682997093</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011229104367803</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.035719498037359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9943564723200832</v>
+        <v>0.9943734185621257</v>
       </c>
       <c r="D13">
-        <v>1.017601306486496</v>
+        <v>1.020196582118754</v>
       </c>
       <c r="E13">
-        <v>1.011411331868567</v>
+        <v>1.012744559818341</v>
       </c>
       <c r="F13">
-        <v>1.021536262004931</v>
+        <v>1.023424705349765</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043512318771722</v>
+        <v>1.045588809022467</v>
       </c>
       <c r="J13">
-        <v>1.024308109294118</v>
+        <v>1.024324329360251</v>
       </c>
       <c r="K13">
-        <v>1.032355958817944</v>
+        <v>1.034904042965565</v>
       </c>
       <c r="L13">
-        <v>1.026279815212574</v>
+        <v>1.02758837240435</v>
       </c>
       <c r="M13">
-        <v>1.036219484630374</v>
+        <v>1.038073901262556</v>
       </c>
       <c r="N13">
-        <v>1.025762744299098</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.01128956539394</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035817427002206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9960292137633945</v>
+        <v>0.9952958040484803</v>
       </c>
       <c r="D14">
-        <v>1.018901530723506</v>
+        <v>1.02082178411482</v>
       </c>
       <c r="E14">
-        <v>1.012815893524247</v>
+        <v>1.013481292761363</v>
       </c>
       <c r="F14">
-        <v>1.022948689099379</v>
+        <v>1.024164850162125</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044032358420816</v>
+        <v>1.04580021662145</v>
       </c>
       <c r="J14">
-        <v>1.025604011816528</v>
+        <v>1.024901536881461</v>
       </c>
       <c r="K14">
-        <v>1.033492096569752</v>
+        <v>1.035377900738822</v>
       </c>
       <c r="L14">
-        <v>1.027516758771613</v>
+        <v>1.028170014001717</v>
       </c>
       <c r="M14">
-        <v>1.037466845124796</v>
+        <v>1.038661392304152</v>
       </c>
       <c r="N14">
-        <v>1.027060487151732</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011491554239792</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.036153882365517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9970534922185968</v>
+        <v>0.9958670435114312</v>
       </c>
       <c r="D15">
-        <v>1.019697897725814</v>
+        <v>1.021210968315873</v>
       </c>
       <c r="E15">
-        <v>1.01367622045548</v>
+        <v>1.013938510831119</v>
       </c>
       <c r="F15">
-        <v>1.023813839812214</v>
+        <v>1.024624332429542</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04435055114712</v>
+        <v>1.045932443966281</v>
       </c>
       <c r="J15">
-        <v>1.026397530901339</v>
+        <v>1.025260638460719</v>
       </c>
       <c r="K15">
-        <v>1.034187742202434</v>
+        <v>1.035673894318324</v>
       </c>
       <c r="L15">
-        <v>1.028274229906943</v>
+        <v>1.028531774065521</v>
       </c>
       <c r="M15">
-        <v>1.038230700479284</v>
+        <v>1.039026911029941</v>
       </c>
       <c r="N15">
-        <v>1.027855133124661</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01161785754178</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.036369022214721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00292172027166</v>
+        <v>0.9991307811682958</v>
       </c>
       <c r="D16">
-        <v>1.024263135386232</v>
+        <v>1.023425185455461</v>
       </c>
       <c r="E16">
-        <v>1.018608976568441</v>
+        <v>1.016549008036003</v>
       </c>
       <c r="F16">
-        <v>1.028774327953517</v>
+        <v>1.02724673640324</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046169710967243</v>
+        <v>1.046675321646044</v>
       </c>
       <c r="J16">
-        <v>1.030943479256616</v>
+        <v>1.027302032454386</v>
       </c>
       <c r="K16">
-        <v>1.038172274171096</v>
+        <v>1.037348516013997</v>
       </c>
       <c r="L16">
-        <v>1.032614461114697</v>
+        <v>1.030589938534623</v>
       </c>
       <c r="M16">
-        <v>1.042607575784905</v>
+        <v>1.041105586389979</v>
       </c>
       <c r="N16">
-        <v>1.03240753724803</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012331702101198</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.037556189873201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00652393079526</v>
+        <v>1.001152632788707</v>
       </c>
       <c r="D17">
-        <v>1.027067721026761</v>
+        <v>1.02479874952772</v>
       </c>
       <c r="E17">
-        <v>1.021640132992172</v>
+        <v>1.018168722217533</v>
       </c>
       <c r="F17">
-        <v>1.031822573941262</v>
+        <v>1.028873765298821</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047282965037379</v>
+        <v>1.047132754430623</v>
       </c>
       <c r="J17">
-        <v>1.033733692053413</v>
+        <v>1.028566588965314</v>
       </c>
       <c r="K17">
-        <v>1.040617235477363</v>
+        <v>1.038385502854215</v>
       </c>
       <c r="L17">
-        <v>1.035279080828444</v>
+        <v>1.031865514724986</v>
       </c>
       <c r="M17">
-        <v>1.045294732637361</v>
+        <v>1.042393789379556</v>
       </c>
       <c r="N17">
-        <v>1.035201712467041</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012773804225578</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.038291949164105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008597996500379</v>
+        <v>1.002310296935502</v>
       </c>
       <c r="D18">
-        <v>1.028683259728342</v>
+        <v>1.025581000110077</v>
       </c>
       <c r="E18">
-        <v>1.023386482385351</v>
+        <v>1.019095080553374</v>
       </c>
       <c r="F18">
-        <v>1.033578780241357</v>
+        <v>1.029803847782074</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047922675245406</v>
+        <v>1.047389678970757</v>
       </c>
       <c r="J18">
-        <v>1.035340071365627</v>
+        <v>1.029286307264385</v>
       </c>
       <c r="K18">
-        <v>1.04202459258109</v>
+        <v>1.038972313141677</v>
       </c>
       <c r="L18">
-        <v>1.036813386117881</v>
+        <v>1.032592151944339</v>
       </c>
       <c r="M18">
-        <v>1.046842023598393</v>
+        <v>1.0431272218828</v>
       </c>
       <c r="N18">
-        <v>1.036810373022132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013023739292596</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.038695235875376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009300733328427</v>
+        <v>1.002713403767257</v>
       </c>
       <c r="D19">
-        <v>1.029230754787319</v>
+        <v>1.025857284661768</v>
       </c>
       <c r="E19">
-        <v>1.023978360073641</v>
+        <v>1.019419300960504</v>
       </c>
       <c r="F19">
-        <v>1.034173999959755</v>
+        <v>1.030129702462617</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048139202756447</v>
+        <v>1.047482078909425</v>
       </c>
       <c r="J19">
-        <v>1.035884315545035</v>
+        <v>1.029540262202496</v>
       </c>
       <c r="K19">
-        <v>1.042501363189973</v>
+        <v>1.039181897638726</v>
       </c>
       <c r="L19">
-        <v>1.037333250054421</v>
+        <v>1.032848251922262</v>
       </c>
       <c r="M19">
-        <v>1.047366288373754</v>
+        <v>1.043385996436803</v>
       </c>
       <c r="N19">
-        <v>1.037355390090701</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013113219196482</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.038849790559818</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006140273999175</v>
+        <v>1.000935638564614</v>
       </c>
       <c r="D20">
-        <v>1.026768938984554</v>
+        <v>1.024650886355561</v>
       </c>
       <c r="E20">
-        <v>1.021317182910934</v>
+        <v>1.017994643022189</v>
       </c>
       <c r="F20">
-        <v>1.031497801791009</v>
+        <v>1.028698869968236</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047164528523396</v>
+        <v>1.04708345589377</v>
       </c>
       <c r="J20">
-        <v>1.033436533271745</v>
+        <v>1.028430540498374</v>
       </c>
       <c r="K20">
-        <v>1.040356872221602</v>
+        <v>1.038273699792462</v>
       </c>
       <c r="L20">
-        <v>1.034995273403005</v>
+        <v>1.031728289883566</v>
       </c>
       <c r="M20">
-        <v>1.045008523767107</v>
+        <v>1.042255181751489</v>
       </c>
       <c r="N20">
-        <v>1.034904131685818</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012726114690891</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.038211569691649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9955379651417647</v>
+        <v>0.9950384961736197</v>
       </c>
       <c r="D21">
-        <v>1.018519641504233</v>
+        <v>1.020652541798918</v>
       </c>
       <c r="E21">
-        <v>1.012403347947821</v>
+        <v>1.013277868698619</v>
       </c>
       <c r="F21">
-        <v>1.022533832001076</v>
+        <v>1.023960907119395</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043879684959652</v>
+        <v>1.045745534839855</v>
       </c>
       <c r="J21">
-        <v>1.025223434092579</v>
+        <v>1.024745130503474</v>
       </c>
       <c r="K21">
-        <v>1.033158447469975</v>
+        <v>1.035252931758049</v>
       </c>
       <c r="L21">
-        <v>1.027153484563412</v>
+        <v>1.028011979793836</v>
       </c>
       <c r="M21">
-        <v>1.037100510481735</v>
+        <v>1.038502120604475</v>
       </c>
       <c r="N21">
-        <v>1.026679368963762</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011438653167137</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036079020157675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9885979574755094</v>
+        <v>0.9912275311854564</v>
       </c>
       <c r="D22">
-        <v>1.01312830663252</v>
+        <v>1.018068702998605</v>
       </c>
       <c r="E22">
-        <v>1.006580183644326</v>
+        <v>1.01023576513001</v>
       </c>
       <c r="F22">
-        <v>1.016678166684179</v>
+        <v>1.020904399776547</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041718451493082</v>
+        <v>1.044866544313198</v>
       </c>
       <c r="J22">
-        <v>1.019846885300599</v>
+        <v>1.022357644540454</v>
       </c>
       <c r="K22">
-        <v>1.028444099620988</v>
+        <v>1.033290516942738</v>
       </c>
       <c r="L22">
-        <v>1.022022403230123</v>
+        <v>1.025607140575667</v>
       </c>
       <c r="M22">
-        <v>1.031926311450887</v>
+        <v>1.036072807989137</v>
       </c>
       <c r="N22">
-        <v>1.021295184855799</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010602011525149</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.034678034242167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9923045467023973</v>
+        <v>0.9932395309273233</v>
       </c>
       <c r="D23">
-        <v>1.016006888238614</v>
+        <v>1.019425971537546</v>
       </c>
       <c r="E23">
-        <v>1.009689114214859</v>
+        <v>1.011838422306266</v>
       </c>
       <c r="F23">
-        <v>1.019804418098791</v>
+        <v>1.022514163057126</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04287373537337</v>
+        <v>1.045326357382509</v>
       </c>
       <c r="J23">
-        <v>1.022718436862883</v>
+        <v>1.02361258083672</v>
       </c>
       <c r="K23">
-        <v>1.030962150455615</v>
+        <v>1.034318039735798</v>
       </c>
       <c r="L23">
-        <v>1.024762617612421</v>
+        <v>1.026871483629793</v>
       </c>
       <c r="M23">
-        <v>1.034689525501428</v>
+        <v>1.037349625866779</v>
       </c>
       <c r="N23">
-        <v>1.024170814350672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011039602104918</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.035394908813519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.00631371524362</v>
+        <v>1.001006803086321</v>
       </c>
       <c r="D24">
-        <v>1.026904008324287</v>
+        <v>1.024689197473924</v>
       </c>
       <c r="E24">
-        <v>1.021463176881352</v>
+        <v>1.018047668166954</v>
       </c>
       <c r="F24">
-        <v>1.031644619419684</v>
+        <v>1.028751253479374</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047218074555879</v>
+        <v>1.047091274331633</v>
       </c>
       <c r="J24">
-        <v>1.033570871517479</v>
+        <v>1.028466151957033</v>
       </c>
       <c r="K24">
-        <v>1.040474576900155</v>
+        <v>1.038296185077521</v>
       </c>
       <c r="L24">
-        <v>1.035123575106161</v>
+        <v>1.031765089751717</v>
       </c>
       <c r="M24">
-        <v>1.045137911073399</v>
+        <v>1.042291601191435</v>
       </c>
       <c r="N24">
-        <v>1.035038660707269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012735131750395</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.038200148417207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021520395280721</v>
+        <v>1.009672438473759</v>
       </c>
       <c r="D25">
-        <v>1.038759713907624</v>
+        <v>1.030584927849636</v>
       </c>
       <c r="E25">
-        <v>1.03428445700523</v>
+        <v>1.02500886452548</v>
       </c>
       <c r="F25">
-        <v>1.044538289577141</v>
+        <v>1.035742339885577</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051884847253249</v>
+        <v>1.049020362154346</v>
       </c>
       <c r="J25">
-        <v>1.045344600522895</v>
+        <v>1.033878614245995</v>
       </c>
       <c r="K25">
-        <v>1.050784720958692</v>
+        <v>1.04272630552439</v>
       </c>
       <c r="L25">
-        <v>1.046372882428619</v>
+        <v>1.037230969803732</v>
       </c>
       <c r="M25">
-        <v>1.056482423351079</v>
+        <v>1.047810029695757</v>
       </c>
       <c r="N25">
-        <v>1.04682910975834</v>
+        <v>1.014624344470004</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.041329589939293</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_43/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016285527565253</v>
+        <v>1.014998539433062</v>
       </c>
       <c r="D2">
-        <v>1.03508240180909</v>
+        <v>1.033350719311423</v>
       </c>
       <c r="E2">
-        <v>1.030339017335103</v>
+        <v>1.029157815141205</v>
       </c>
       <c r="F2">
-        <v>1.041092174266633</v>
+        <v>1.03967325500069</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050444395003665</v>
+        <v>1.049739012142667</v>
       </c>
       <c r="J2">
-        <v>1.037989817511847</v>
+        <v>1.036739717663134</v>
       </c>
       <c r="K2">
-        <v>1.046073697298929</v>
+        <v>1.044364184981476</v>
       </c>
       <c r="L2">
-        <v>1.041391262943592</v>
+        <v>1.040225347955659</v>
       </c>
       <c r="M2">
-        <v>1.052007242384271</v>
+        <v>1.05060622137225</v>
       </c>
       <c r="N2">
-        <v>1.0160523462725</v>
+        <v>1.016587629709979</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043648368644285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042448328308735</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023706922066773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020978984565363</v>
+        <v>1.019381782915481</v>
       </c>
       <c r="D3">
-        <v>1.038292502842587</v>
+        <v>1.036237498031712</v>
       </c>
       <c r="E3">
-        <v>1.034138846055616</v>
+        <v>1.03267516596404</v>
       </c>
       <c r="F3">
-        <v>1.044906104107002</v>
+        <v>1.043188889794595</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051443128983599</v>
+        <v>1.050591216571729</v>
       </c>
       <c r="J3">
-        <v>1.040913632305546</v>
+        <v>1.039357672760105</v>
       </c>
       <c r="K3">
-        <v>1.048457790979058</v>
+        <v>1.046426793734585</v>
       </c>
       <c r="L3">
-        <v>1.044352781133689</v>
+        <v>1.042906358895868</v>
       </c>
       <c r="M3">
-        <v>1.054994920343497</v>
+        <v>1.053297446773778</v>
       </c>
       <c r="N3">
-        <v>1.017070210257318</v>
+        <v>1.017310333973048</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045331463776786</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043903829228462</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024165145913225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023958040469687</v>
+        <v>1.022166579462739</v>
       </c>
       <c r="D4">
-        <v>1.040333686550736</v>
+        <v>1.038075203917287</v>
       </c>
       <c r="E4">
-        <v>1.036556516739793</v>
+        <v>1.0349156730098</v>
       </c>
       <c r="F4">
-        <v>1.047332319685319</v>
+        <v>1.045427829277009</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052067637743897</v>
+        <v>1.05112343431428</v>
       </c>
       <c r="J4">
-        <v>1.042768136292784</v>
+        <v>1.041019769696979</v>
       </c>
       <c r="K4">
-        <v>1.04996852099232</v>
+        <v>1.04773482660786</v>
       </c>
       <c r="L4">
-        <v>1.046232882618926</v>
+        <v>1.044610196735608</v>
       </c>
       <c r="M4">
-        <v>1.056891172169</v>
+        <v>1.055007234654516</v>
       </c>
       <c r="N4">
-        <v>1.017715400355952</v>
+        <v>1.017768982615425</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04640055321986</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044829677818945</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024453330694623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025202119966705</v>
+        <v>1.023330024326318</v>
       </c>
       <c r="D5">
-        <v>1.04118898879365</v>
+        <v>1.038845899687149</v>
       </c>
       <c r="E5">
-        <v>1.037568218039906</v>
+        <v>1.035853777088674</v>
       </c>
       <c r="F5">
-        <v>1.048347733462243</v>
+        <v>1.046365431437071</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052327836270358</v>
+        <v>1.0513452125668</v>
       </c>
       <c r="J5">
-        <v>1.043544030455929</v>
+        <v>1.041715609525617</v>
       </c>
       <c r="K5">
-        <v>1.050601678431516</v>
+        <v>1.048283619321257</v>
       </c>
       <c r="L5">
-        <v>1.047019644840818</v>
+        <v>1.04532366180685</v>
       </c>
       <c r="M5">
-        <v>1.057684797166673</v>
+        <v>1.055723309779556</v>
       </c>
       <c r="N5">
-        <v>1.017985810983857</v>
+        <v>1.017961385525099</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046855347231081</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045225533019112</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024574191452078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025416385078443</v>
+        <v>1.023530303528294</v>
       </c>
       <c r="D6">
-        <v>1.041338847732676</v>
+        <v>1.03898116928227</v>
       </c>
       <c r="E6">
-        <v>1.037743399078691</v>
+        <v>1.036016187186036</v>
       </c>
       <c r="F6">
-        <v>1.048523847595893</v>
+        <v>1.046528079666419</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052374583727363</v>
+        <v>1.051385298072185</v>
       </c>
       <c r="J6">
-        <v>1.043679812620587</v>
+        <v>1.041837503235157</v>
       </c>
       <c r="K6">
-        <v>1.050714219632569</v>
+        <v>1.048381611166952</v>
       </c>
       <c r="L6">
-        <v>1.047157058434876</v>
+        <v>1.045448355167969</v>
       </c>
       <c r="M6">
-        <v>1.057823668432276</v>
+        <v>1.055848759060125</v>
       </c>
       <c r="N6">
-        <v>1.01803383246334</v>
+        <v>1.017995618169665</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046943585866669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045304356241314</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024596388336342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023991312849944</v>
+        <v>1.022208897610522</v>
       </c>
       <c r="D7">
-        <v>1.040363276995132</v>
+        <v>1.038110983566807</v>
       </c>
       <c r="E7">
-        <v>1.036585892459317</v>
+        <v>1.034953097471714</v>
       </c>
       <c r="F7">
-        <v>1.047362586208506</v>
+        <v>1.045465416297132</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052080183951972</v>
+        <v>1.05113909546379</v>
       </c>
       <c r="J7">
-        <v>1.042794736407814</v>
+        <v>1.041055178132408</v>
       </c>
       <c r="K7">
-        <v>1.049994941189117</v>
+        <v>1.047767357947504</v>
       </c>
       <c r="L7">
-        <v>1.046259073737905</v>
+        <v>1.044644340080448</v>
       </c>
       <c r="M7">
-        <v>1.056918291692849</v>
+        <v>1.055041587249516</v>
       </c>
       <c r="N7">
-        <v>1.017726597976244</v>
+        <v>1.01780653018438</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046439167326782</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044874618744373</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024463092680561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017905032796986</v>
+        <v>1.016545786684492</v>
       </c>
       <c r="D8">
-        <v>1.036197664707896</v>
+        <v>1.034380604746204</v>
       </c>
       <c r="E8">
-        <v>1.031651946936846</v>
+        <v>1.0304045632129</v>
       </c>
       <c r="F8">
-        <v>1.042410973407774</v>
+        <v>1.040918429046364</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050797914354908</v>
+        <v>1.050055050399552</v>
       </c>
       <c r="J8">
-        <v>1.039006297079933</v>
+        <v>1.037684680492752</v>
       </c>
       <c r="K8">
-        <v>1.046908661520599</v>
+        <v>1.045114168059884</v>
       </c>
       <c r="L8">
-        <v>1.042419584252023</v>
+        <v>1.041187852139965</v>
       </c>
       <c r="M8">
-        <v>1.053045544758336</v>
+        <v>1.051571255567963</v>
       </c>
       <c r="N8">
-        <v>1.016408837472964</v>
+        <v>1.016930618016449</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044261490350832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043003633116273</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02387886979826</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006685509678412</v>
+        <v>1.006091026545672</v>
       </c>
       <c r="D9">
-        <v>1.028539662046059</v>
+        <v>1.02751121167304</v>
       </c>
       <c r="E9">
-        <v>1.022601384312987</v>
+        <v>1.022048471635803</v>
       </c>
       <c r="F9">
-        <v>1.033323740821835</v>
+        <v>1.032562742288191</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048352165843798</v>
+        <v>1.047966598517287</v>
       </c>
       <c r="J9">
-        <v>1.032004374293242</v>
+        <v>1.031430513375682</v>
       </c>
       <c r="K9">
-        <v>1.041186071883591</v>
+        <v>1.040173168408331</v>
       </c>
       <c r="L9">
-        <v>1.035338111853845</v>
+        <v>1.034793676800464</v>
       </c>
       <c r="M9">
-        <v>1.045898348061313</v>
+        <v>1.045148714479623</v>
       </c>
       <c r="N9">
-        <v>1.013966972260667</v>
+        <v>1.015211643313334</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040212119000847</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039506626155363</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022766219710864</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9988615774765167</v>
+        <v>0.998872562910652</v>
       </c>
       <c r="D10">
-        <v>1.023227481284454</v>
+        <v>1.022801375042437</v>
       </c>
       <c r="E10">
-        <v>1.016327477179678</v>
+        <v>1.016321750101662</v>
       </c>
       <c r="F10">
-        <v>1.027022924322827</v>
+        <v>1.026831741963212</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046602021469073</v>
+        <v>1.046490915982377</v>
       </c>
       <c r="J10">
-        <v>1.027120435835025</v>
+        <v>1.027130984014714</v>
       </c>
       <c r="K10">
-        <v>1.03718964936709</v>
+        <v>1.036770796090656</v>
       </c>
       <c r="L10">
-        <v>1.030408061587633</v>
+        <v>1.030402433660511</v>
       </c>
       <c r="M10">
-        <v>1.040920830806633</v>
+        <v>1.040732870747855</v>
       </c>
       <c r="N10">
-        <v>1.012263062468616</v>
+        <v>1.014143650076978</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037403158854275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037119385691411</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.0219923565672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9954049132894619</v>
+        <v>0.9957756275491016</v>
       </c>
       <c r="D11">
-        <v>1.020896092624052</v>
+        <v>1.020806265231124</v>
       </c>
       <c r="E11">
-        <v>1.013568604260086</v>
+        <v>1.01388782259791</v>
       </c>
       <c r="F11">
-        <v>1.024252592670691</v>
+        <v>1.024391926562905</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045825469706506</v>
+        <v>1.045870921213569</v>
       </c>
       <c r="J11">
-        <v>1.024970110603935</v>
+        <v>1.025325207478595</v>
       </c>
       <c r="K11">
-        <v>1.035434412722691</v>
+        <v>1.035346190675627</v>
       </c>
       <c r="L11">
-        <v>1.028239094095522</v>
+        <v>1.028552502736942</v>
       </c>
       <c r="M11">
-        <v>1.038731189075752</v>
+        <v>1.038868054713439</v>
       </c>
       <c r="N11">
-        <v>1.011515667196473</v>
+        <v>1.013882792395605</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036194904544804</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036148120511251</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021674679178518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.994094030613058</v>
+        <v>0.9946107091755721</v>
       </c>
       <c r="D12">
-        <v>1.020008358904588</v>
+        <v>1.020053461724724</v>
       </c>
       <c r="E12">
-        <v>1.012521933789089</v>
+        <v>1.012973162015041</v>
       </c>
       <c r="F12">
-        <v>1.023201134333933</v>
+        <v>1.023474180621998</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045525584882169</v>
+        <v>1.045634337652916</v>
       </c>
       <c r="J12">
-        <v>1.024150462064667</v>
+        <v>1.024644917827321</v>
       </c>
       <c r="K12">
-        <v>1.034762013855661</v>
+        <v>1.034806296170143</v>
       </c>
       <c r="L12">
-        <v>1.027413102100865</v>
+        <v>1.02785596694642</v>
       </c>
       <c r="M12">
-        <v>1.037896938939176</v>
+        <v>1.038165059640819</v>
       </c>
       <c r="N12">
-        <v>1.011229104367803</v>
+        <v>1.013800042757123</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035719498037359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035766406585057</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021553393476179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9943734185621257</v>
+        <v>0.9948586010578557</v>
       </c>
       <c r="D13">
-        <v>1.020196582118754</v>
+        <v>1.020212603990635</v>
       </c>
       <c r="E13">
-        <v>1.012744559818341</v>
+        <v>1.013167303938062</v>
       </c>
       <c r="F13">
-        <v>1.023424705349765</v>
+        <v>1.023668907571173</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045588809022467</v>
+        <v>1.04568392515663</v>
       </c>
       <c r="J13">
-        <v>1.024324329360251</v>
+        <v>1.02478873590302</v>
       </c>
       <c r="K13">
-        <v>1.034904042965565</v>
+        <v>1.034919774471815</v>
       </c>
       <c r="L13">
-        <v>1.02758837240435</v>
+        <v>1.028003311512621</v>
       </c>
       <c r="M13">
-        <v>1.038073901262556</v>
+        <v>1.038313715263368</v>
       </c>
       <c r="N13">
-        <v>1.01128956539394</v>
+        <v>1.013816253085275</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035817427002206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035843906003109</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021578612822209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9952958040484803</v>
+        <v>0.9956784886273926</v>
       </c>
       <c r="D14">
-        <v>1.02082178411482</v>
+        <v>1.020743038824752</v>
       </c>
       <c r="E14">
-        <v>1.013481292761363</v>
+        <v>1.013811337237629</v>
       </c>
       <c r="F14">
-        <v>1.024164850162125</v>
+        <v>1.024315153827083</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04580021662145</v>
+        <v>1.045850869254772</v>
       </c>
       <c r="J14">
-        <v>1.024901536881461</v>
+        <v>1.025268071957374</v>
       </c>
       <c r="K14">
-        <v>1.035377900738822</v>
+        <v>1.0353005648241</v>
       </c>
       <c r="L14">
-        <v>1.028170014001717</v>
+        <v>1.028494042629871</v>
       </c>
       <c r="M14">
-        <v>1.038661392304152</v>
+        <v>1.038809029362535</v>
       </c>
       <c r="N14">
-        <v>1.011491554239792</v>
+        <v>1.013875267839766</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.036153882365517</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036114692270175</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021664312312013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9958670435114312</v>
+        <v>0.9961874319383103</v>
       </c>
       <c r="D15">
-        <v>1.021210968315873</v>
+        <v>1.021074500629641</v>
       </c>
       <c r="E15">
-        <v>1.013938510831119</v>
+        <v>1.01421221924693</v>
       </c>
       <c r="F15">
-        <v>1.024624332429542</v>
+        <v>1.024717535511997</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045932443966281</v>
+        <v>1.045956019200676</v>
       </c>
       <c r="J15">
-        <v>1.025260638460719</v>
+        <v>1.025567628164515</v>
       </c>
       <c r="K15">
-        <v>1.035673894318324</v>
+        <v>1.03553985023035</v>
       </c>
       <c r="L15">
-        <v>1.028531774065521</v>
+        <v>1.028800533055304</v>
       </c>
       <c r="M15">
-        <v>1.039026911029941</v>
+        <v>1.039118473615183</v>
       </c>
       <c r="N15">
-        <v>1.01161785754178</v>
+        <v>1.013915481068141</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036369022214721</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036290303549448</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021718723111638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9991307811682958</v>
+        <v>0.9991150251218416</v>
       </c>
       <c r="D16">
-        <v>1.023425185455461</v>
+        <v>1.022974163680617</v>
       </c>
       <c r="E16">
-        <v>1.016549008036003</v>
+        <v>1.016519022999129</v>
       </c>
       <c r="F16">
-        <v>1.02724673640324</v>
+        <v>1.027030971073483</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046675321646044</v>
+        <v>1.04655232351323</v>
       </c>
       <c r="J16">
-        <v>1.027302032454386</v>
+        <v>1.027286901085709</v>
       </c>
       <c r="K16">
-        <v>1.037348516013997</v>
+        <v>1.036905145305031</v>
       </c>
       <c r="L16">
-        <v>1.030589938534623</v>
+        <v>1.030560470823291</v>
       </c>
       <c r="M16">
-        <v>1.041105586389979</v>
+        <v>1.040893445162361</v>
       </c>
       <c r="N16">
-        <v>1.012331702101198</v>
+        <v>1.014177727554565</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037556189873201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037259058085286</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022026797202998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001152632788707</v>
+        <v>1.000947586163138</v>
       </c>
       <c r="D17">
-        <v>1.02479874952772</v>
+        <v>1.024167403867067</v>
       </c>
       <c r="E17">
-        <v>1.018168722217533</v>
+        <v>1.017967781147984</v>
       </c>
       <c r="F17">
-        <v>1.028873765298821</v>
+        <v>1.028482932639551</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047132754430623</v>
+        <v>1.046926361511843</v>
       </c>
       <c r="J17">
-        <v>1.028566588965314</v>
+        <v>1.02836939867182</v>
       </c>
       <c r="K17">
-        <v>1.038385502854215</v>
+        <v>1.037764556733649</v>
       </c>
       <c r="L17">
-        <v>1.031865514724986</v>
+        <v>1.031667937536902</v>
       </c>
       <c r="M17">
-        <v>1.042393789379556</v>
+        <v>1.04200932722881</v>
       </c>
       <c r="N17">
-        <v>1.012773804225578</v>
+        <v>1.014380395477044</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.038291949164105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037869507745762</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022221443703748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002310296935502</v>
+        <v>1.002004347224593</v>
       </c>
       <c r="D18">
-        <v>1.025581000110077</v>
+        <v>1.024851981705528</v>
       </c>
       <c r="E18">
-        <v>1.019095080553374</v>
+        <v>1.018803023525585</v>
       </c>
       <c r="F18">
-        <v>1.029803847782074</v>
+        <v>1.029319135456699</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047389678970757</v>
+        <v>1.047138450792518</v>
       </c>
       <c r="J18">
-        <v>1.029286307264385</v>
+        <v>1.028991846005606</v>
       </c>
       <c r="K18">
-        <v>1.038972313141677</v>
+        <v>1.03825509625319</v>
       </c>
       <c r="L18">
-        <v>1.032592151944339</v>
+        <v>1.032304897902534</v>
       </c>
       <c r="M18">
-        <v>1.0431272218828</v>
+        <v>1.042650271493186</v>
       </c>
       <c r="N18">
-        <v>1.013023739292596</v>
+        <v>1.014509406453004</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038695235875376</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038203589691447</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022331492371656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002713403767257</v>
+        <v>1.002373405636577</v>
       </c>
       <c r="D19">
-        <v>1.025857284661768</v>
+        <v>1.025095145304518</v>
       </c>
       <c r="E19">
-        <v>1.019419300960504</v>
+        <v>1.019096471099957</v>
       </c>
       <c r="F19">
-        <v>1.030129702462617</v>
+        <v>1.029613237744972</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047482078909425</v>
+        <v>1.047215609493812</v>
       </c>
       <c r="J19">
-        <v>1.029540262202496</v>
+        <v>1.02921294267513</v>
       </c>
       <c r="K19">
-        <v>1.039181897638726</v>
+        <v>1.038432022232567</v>
       </c>
       <c r="L19">
-        <v>1.032848251922262</v>
+        <v>1.032530698657351</v>
       </c>
       <c r="M19">
-        <v>1.043385996436803</v>
+        <v>1.042877751750416</v>
       </c>
       <c r="N19">
-        <v>1.013113219196482</v>
+        <v>1.014559329488513</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038849790559818</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038335674419787</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022372263191357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000935638564614</v>
+        <v>1.000750170473633</v>
       </c>
       <c r="D20">
-        <v>1.024650886355561</v>
+        <v>1.024038327291938</v>
       </c>
       <c r="E20">
-        <v>1.017994643022189</v>
+        <v>1.017811387195944</v>
       </c>
       <c r="F20">
-        <v>1.028698869968236</v>
+        <v>1.028326195179621</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04708345589377</v>
+        <v>1.046885734535739</v>
       </c>
       <c r="J20">
-        <v>1.028430540498374</v>
+        <v>1.028252204903979</v>
       </c>
       <c r="K20">
-        <v>1.038273699792462</v>
+        <v>1.037671263002388</v>
       </c>
       <c r="L20">
-        <v>1.031728289883566</v>
+        <v>1.031548111896404</v>
       </c>
       <c r="M20">
-        <v>1.042255181751489</v>
+        <v>1.041888601262942</v>
       </c>
       <c r="N20">
-        <v>1.012726114690891</v>
+        <v>1.014356785882937</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038211569691649</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037802086218178</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022200184525497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9950384961736197</v>
+        <v>0.9954797169835942</v>
       </c>
       <c r="D21">
-        <v>1.020652541798918</v>
+        <v>1.020623366041416</v>
       </c>
       <c r="E21">
-        <v>1.013277868698619</v>
+        <v>1.013661068698208</v>
       </c>
       <c r="F21">
-        <v>1.023960907119395</v>
+        <v>1.024163235389629</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045745534839855</v>
+        <v>1.045820316006598</v>
       </c>
       <c r="J21">
-        <v>1.024745130503474</v>
+        <v>1.025167652685863</v>
       </c>
       <c r="K21">
-        <v>1.035252931758049</v>
+        <v>1.035224280082409</v>
       </c>
       <c r="L21">
-        <v>1.028011979793836</v>
+        <v>1.028388169028975</v>
       </c>
       <c r="M21">
-        <v>1.038502120604475</v>
+        <v>1.038700845946724</v>
       </c>
       <c r="N21">
-        <v>1.011438653167137</v>
+        <v>1.013933338657527</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036079020157675</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036075560241329</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021651027324944</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9912275311854564</v>
+        <v>0.9920777862522562</v>
       </c>
       <c r="D22">
-        <v>1.018068702998605</v>
+        <v>1.018420565014719</v>
       </c>
       <c r="E22">
-        <v>1.01023576513001</v>
+        <v>1.010989109111891</v>
       </c>
       <c r="F22">
-        <v>1.020904399776547</v>
+        <v>1.021482885051605</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044866544313198</v>
+        <v>1.04511992699849</v>
       </c>
       <c r="J22">
-        <v>1.022357644540454</v>
+        <v>1.023169674759954</v>
       </c>
       <c r="K22">
-        <v>1.033290516942738</v>
+        <v>1.033635731090329</v>
       </c>
       <c r="L22">
-        <v>1.025607140575667</v>
+        <v>1.026345968345592</v>
       </c>
       <c r="M22">
-        <v>1.036072807989137</v>
+        <v>1.036640445978849</v>
       </c>
       <c r="N22">
-        <v>1.010602011525149</v>
+        <v>1.013646220883175</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034678034242167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03493762549093</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02129093022999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9932395309273233</v>
+        <v>0.9938537097854501</v>
       </c>
       <c r="D23">
-        <v>1.019425971537546</v>
+        <v>1.019560862889969</v>
       </c>
       <c r="E23">
-        <v>1.011838422306266</v>
+        <v>1.012377927965877</v>
       </c>
       <c r="F23">
-        <v>1.022514163057126</v>
+        <v>1.02287648177063</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045326357382509</v>
+        <v>1.045477444495938</v>
       </c>
       <c r="J23">
-        <v>1.02361258083672</v>
+        <v>1.024199992002694</v>
       </c>
       <c r="K23">
-        <v>1.034318039735798</v>
+        <v>1.034450449249406</v>
       </c>
       <c r="L23">
-        <v>1.026871483629793</v>
+        <v>1.027400872978447</v>
       </c>
       <c r="M23">
-        <v>1.037349625866779</v>
+        <v>1.037705332574072</v>
       </c>
       <c r="N23">
-        <v>1.011039602104918</v>
+        <v>1.0137477860806</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035394908813519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.035503095041644</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021472442357202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001006803086321</v>
+        <v>1.00081533768859</v>
       </c>
       <c r="D24">
-        <v>1.024689197473924</v>
+        <v>1.024070609781103</v>
       </c>
       <c r="E24">
-        <v>1.018047668166954</v>
+        <v>1.017859057413163</v>
       </c>
       <c r="F24">
-        <v>1.028751253479374</v>
+        <v>1.028372947072001</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047091274331633</v>
+        <v>1.04689098771887</v>
       </c>
       <c r="J24">
-        <v>1.028466151957033</v>
+        <v>1.028282037940045</v>
       </c>
       <c r="K24">
-        <v>1.038296185077521</v>
+        <v>1.037687805286399</v>
       </c>
       <c r="L24">
-        <v>1.031765089751717</v>
+        <v>1.031579642307982</v>
       </c>
       <c r="M24">
-        <v>1.042291601191435</v>
+        <v>1.041919472500964</v>
       </c>
       <c r="N24">
-        <v>1.012735131750395</v>
+        <v>1.014358436320735</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038200148417207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03778379282639</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022201221991979</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009672438473759</v>
+        <v>1.008856213576249</v>
       </c>
       <c r="D25">
-        <v>1.030584927849636</v>
+        <v>1.029333446470435</v>
       </c>
       <c r="E25">
-        <v>1.02500886452548</v>
+        <v>1.02425500956518</v>
       </c>
       <c r="F25">
-        <v>1.035742339885577</v>
+        <v>1.034771554600391</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049020362154346</v>
+        <v>1.048533061561993</v>
       </c>
       <c r="J25">
-        <v>1.033878614245995</v>
+        <v>1.033089162956071</v>
       </c>
       <c r="K25">
-        <v>1.04272630552439</v>
+        <v>1.041492846054439</v>
       </c>
       <c r="L25">
-        <v>1.037230969803732</v>
+        <v>1.036488114371803</v>
       </c>
       <c r="M25">
-        <v>1.047810029695757</v>
+        <v>1.046853043764092</v>
       </c>
       <c r="N25">
-        <v>1.014624344470004</v>
+        <v>1.015639092403088</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041329589939293</v>
+        <v>1.040470952574936</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023067349371156</v>
       </c>
     </row>
   </sheetData>
